--- a/biology/Botanique/Limonium_lobinii/Limonium_lobinii.xlsx
+++ b/biology/Botanique/Limonium_lobinii/Limonium_lobinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium lobini  est une espèce de plantes à fleurs de la famille des Plumbaginaceae. C'est une espèce endémique de la Serra Malagueta[1], un massif montagneux situé dans le nord de l'île de Santiago au Cap-Vert. Elle est présente entre 500 m et 800 m, sur des escarpements rocheux orientés au nord-est[2].
-Localement elle est connue sous le nom de « carqueja de Santiago »[2].
-Espèce en danger[1], elle n'a été décrite que récemment (N. Kilian &amp; Leyens, 1994)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium lobini  est une espèce de plantes à fleurs de la famille des Plumbaginaceae. C'est une espèce endémique de la Serra Malagueta, un massif montagneux situé dans le nord de l'île de Santiago au Cap-Vert. Elle est présente entre 500 m et 800 m, sur des escarpements rocheux orientés au nord-est.
+Localement elle est connue sous le nom de « carqueja de Santiago ».
+Espèce en danger, elle n'a été décrite que récemment (N. Kilian &amp; Leyens, 1994).
 </t>
         </is>
       </c>
